--- a/Texas/WaterAllocation_TCEQ/TXwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Texas/WaterAllocation_TCEQ/TXwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\WaterAllocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\WaterAllocation_TCEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC32394-1BD9-405E-8E28-7A6D72721E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB5171C-3A4A-4D96-A78D-275B1A16DE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="328">
   <si>
     <t>Name</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>OrganizationContactEmail</t>
-  </si>
-  <si>
-    <t>OrganizationDataMappingURL</t>
   </si>
   <si>
     <t>State</t>
@@ -2389,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2402,10 +2399,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>278</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>279</v>
       </c>
       <c r="C1" s="79" t="s">
         <v>21</v>
@@ -2413,61 +2410,61 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="81"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="81"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="81"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="81"/>
     </row>
@@ -2476,24 +2473,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="81"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2503,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,13 +2542,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2592,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2609,7 +2606,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="43"/>
@@ -2617,10 +2614,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2637,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -2645,10 +2642,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2665,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -2676,7 +2673,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2693,7 +2690,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -2704,7 +2701,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2721,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -2729,10 +2726,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.3">
@@ -2749,7 +2746,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -2758,7 +2755,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2775,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
@@ -2783,10 +2780,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2803,7 +2800,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -2811,10 +2808,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2831,7 +2828,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -2839,10 +2836,35 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2898,13 +2920,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2939,7 +2961,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2956,7 +2978,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="43"/>
@@ -2964,10 +2986,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2995,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3012,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -3020,10 +3042,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3040,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -3048,10 +3070,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3068,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3076,10 +3098,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3096,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3104,10 +3126,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3135,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3152,7 +3174,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3160,10 +3182,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3180,7 +3202,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -3188,10 +3210,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3208,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -3216,10 +3238,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3233,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3275,13 +3297,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3322,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3339,7 +3361,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="43"/>
@@ -3347,10 +3369,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3367,7 +3389,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -3375,10 +3397,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3395,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -3403,15 +3425,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -3423,7 +3445,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -3431,15 +3453,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="J7" s="77" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -3451,7 +3473,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3459,21 +3481,21 @@
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="J8" s="77" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
@@ -3487,21 +3509,21 @@
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="J9" s="77" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
@@ -3515,18 +3537,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J10" s="77" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -3543,39 +3565,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J11" s="77" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="77" t="s">
-        <v>246</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -3598,12 +3595,9 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3614,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3654,13 +3648,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3699,7 +3693,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3716,7 +3710,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>38</v>
@@ -3726,10 +3720,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3746,7 +3740,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="65" t="s">
         <v>38</v>
@@ -3759,7 +3753,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3776,7 +3770,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="65" t="s">
         <v>38</v>
@@ -3789,7 +3783,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3806,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="65" t="s">
         <v>38</v>
@@ -3816,10 +3810,10 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3836,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>38</v>
@@ -3846,10 +3840,10 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3866,7 +3860,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F9" s="65" t="s">
         <v>38</v>
@@ -3879,7 +3873,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3896,7 +3890,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>309</v>
+        <v>105</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>38</v>
@@ -3906,10 +3900,10 @@
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3973,13 +3967,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4020,7 +4014,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4041,15 +4035,15 @@
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>67</v>
@@ -4061,7 +4055,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>38</v>
@@ -4076,7 +4070,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -4093,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="46"/>
@@ -4104,7 +4098,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4112,7 +4106,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>18</v>
@@ -4121,7 +4115,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>38</v>
@@ -4133,10 +4127,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4153,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
@@ -4165,10 +4159,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4176,7 +4170,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>18</v>
@@ -4185,7 +4179,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>38</v>
@@ -4200,7 +4194,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4229,10 +4223,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4249,7 +4243,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>38</v>
@@ -4262,7 +4256,7 @@
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4279,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>38</v>
@@ -4294,7 +4288,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4302,7 +4296,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>18</v>
@@ -4311,7 +4305,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>38</v>
@@ -4326,7 +4320,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4334,7 +4328,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>18</v>
@@ -4343,7 +4337,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>38</v>
@@ -4358,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4375,10 +4369,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>55</v>
@@ -4387,10 +4381,10 @@
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J15" s="77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4407,10 +4401,10 @@
         <v>38</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>54</v>
@@ -4422,7 +4416,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4439,7 +4433,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>38</v>
@@ -4454,7 +4448,7 @@
         <v>38</v>
       </c>
       <c r="J17" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -4471,7 +4465,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>38</v>
@@ -4486,12 +4480,12 @@
         <v>38</v>
       </c>
       <c r="J18" s="77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>16</v>
@@ -4503,7 +4497,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>38</v>
@@ -4515,10 +4509,10 @@
         <v>38</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J19" s="77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -4535,7 +4529,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>38</v>
@@ -4547,10 +4541,10 @@
         <v>38</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -4567,7 +4561,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>38</v>
@@ -4582,7 +4576,7 @@
         <v>3703994</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -4599,7 +4593,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>38</v>
@@ -4611,10 +4605,10 @@
         <v>38</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J22" s="77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="49" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -4634,19 +4628,19 @@
         <v>38</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H23" s="69" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J23" s="77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
@@ -4663,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>38</v>
@@ -4675,10 +4669,10 @@
         <v>38</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J24" s="77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -4695,7 +4689,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>38</v>
@@ -4710,7 +4704,7 @@
         <v>38</v>
       </c>
       <c r="J25" s="77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -4782,13 +4776,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4802,7 +4796,7 @@
     </row>
     <row r="3" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>33</v>
@@ -4823,7 +4817,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
@@ -4945,12 +4939,12 @@
         <v>63</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>34</v>
@@ -4962,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="46"/>
@@ -4984,7 +4978,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="46"/>
@@ -4995,7 +4989,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5012,7 +5006,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
@@ -5023,7 +5017,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5040,7 +5034,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -5051,7 +5045,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5068,7 +5062,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="41"/>
@@ -5079,12 +5073,12 @@
         <v>38</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>33</v>
@@ -5096,7 +5090,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>38</v>
@@ -5111,12 +5105,12 @@
         <v>5363</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>68</v>
@@ -5128,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>38</v>
@@ -5140,15 +5134,15 @@
         <v>38</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>68</v>
@@ -5160,7 +5154,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>38</v>
@@ -5172,15 +5166,15 @@
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>34</v>
@@ -5192,7 +5186,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>38</v>
@@ -5204,15 +5198,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>15</v>
@@ -5224,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>38</v>
@@ -5236,15 +5230,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J17" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>34</v>
@@ -5256,7 +5250,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>38</v>
@@ -5268,15 +5262,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J18" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>69</v>
@@ -5288,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>38</v>
@@ -5303,12 +5297,12 @@
         <v>38</v>
       </c>
       <c r="J19" s="77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>33</v>
@@ -5320,7 +5314,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>38</v>
@@ -5335,12 +5329,12 @@
         <v>5200</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>69</v>
@@ -5352,7 +5346,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>38</v>
@@ -5367,12 +5361,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>34</v>
@@ -5384,7 +5378,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>38</v>
@@ -5396,15 +5390,15 @@
         <v>38</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J22" s="77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="35" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>34</v>
@@ -5419,24 +5413,24 @@
         <v>38</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J23" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>68</v>
@@ -5448,27 +5442,27 @@
         <v>38</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="50" t="s">
         <v>33</v>
@@ -5480,7 +5474,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>38</v>
@@ -5492,18 +5486,18 @@
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J25" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>18</v>
@@ -5512,7 +5506,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>38</v>
@@ -5527,15 +5521,15 @@
         <v>44196</v>
       </c>
       <c r="J26" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>18</v>
@@ -5544,7 +5538,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>38</v>
@@ -5559,12 +5553,12 @@
         <v>43831</v>
       </c>
       <c r="J27" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>34</v>
@@ -5576,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>38</v>
@@ -5588,15 +5582,15 @@
         <v>38</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>69</v>
@@ -5608,7 +5602,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>38</v>
@@ -5623,12 +5617,12 @@
         <v>0</v>
       </c>
       <c r="J29" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>34</v>
@@ -5640,13 +5634,13 @@
         <v>38</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>38</v>
@@ -5655,12 +5649,12 @@
         <v>38</v>
       </c>
       <c r="J30" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>34</v>
@@ -5672,7 +5666,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>38</v>
@@ -5684,15 +5678,15 @@
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J31" s="77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>15</v>
@@ -5704,7 +5698,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>38</v>
@@ -5716,15 +5710,15 @@
         <v>38</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>15</v>
@@ -5736,7 +5730,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>38</v>
@@ -5748,15 +5742,15 @@
         <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J33" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="50" t="s">
         <v>33</v>
@@ -5768,7 +5762,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>38</v>
@@ -5783,12 +5777,12 @@
         <v>43874</v>
       </c>
       <c r="J34" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="50" t="s">
         <v>15</v>
@@ -5800,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>38</v>
@@ -5815,15 +5809,15 @@
         <v>33187</v>
       </c>
       <c r="J35" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>18</v>
@@ -5832,7 +5826,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>38</v>
@@ -5843,12 +5837,12 @@
       <c r="H36" s="36"/>
       <c r="I36" s="62"/>
       <c r="J36" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="50" t="s">
         <v>69</v>
@@ -5860,7 +5854,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>38</v>
@@ -5875,12 +5869,12 @@
         <v>38</v>
       </c>
       <c r="J37" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>69</v>
@@ -5892,7 +5886,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>38</v>
@@ -5905,12 +5899,12 @@
         <v>38</v>
       </c>
       <c r="J38" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="50" t="s">
         <v>15</v>
@@ -5922,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>38</v>
@@ -5934,15 +5928,15 @@
         <v>38</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J39" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="50" t="s">
         <v>34</v>
@@ -5954,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>38</v>
@@ -5969,12 +5963,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="50" t="s">
         <v>34</v>
@@ -5986,7 +5980,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>38</v>
@@ -5998,10 +5992,10 @@
         <v>38</v>
       </c>
       <c r="I41" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J41" s="77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -6012,7 +6006,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="50" t="s">
         <v>33</v>
@@ -6024,7 +6018,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>38</v>
@@ -6039,12 +6033,12 @@
         <v>38</v>
       </c>
       <c r="J42" s="77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>16</v>
@@ -6056,7 +6050,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>38</v>
@@ -6068,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J43" s="77"/>
       <c r="K43" s="49"/>
@@ -6080,7 +6074,7 @@
     </row>
     <row r="44" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>15</v>
@@ -6092,7 +6086,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>38</v>
@@ -6104,10 +6098,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J44" s="77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6118,7 +6112,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>15</v>
@@ -6130,7 +6124,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>38</v>
@@ -6141,7 +6135,7 @@
       <c r="H45" s="69"/>
       <c r="I45" s="57"/>
       <c r="J45" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
@@ -6152,7 +6146,7 @@
     </row>
     <row r="46" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A46" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>34</v>
@@ -6164,22 +6158,22 @@
         <v>38</v>
       </c>
       <c r="E46" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F46" s="32" t="s">
-        <v>322</v>
-      </c>
       <c r="G46" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H46" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J46" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -6376,13 +6370,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="78" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>211</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>20</v>
@@ -6391,16 +6385,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -6411,13 +6405,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -6428,13 +6422,13 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -6445,13 +6439,13 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -6459,16 +6453,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6476,16 +6470,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -6493,16 +6487,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -6510,16 +6504,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -6527,16 +6521,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -6544,16 +6538,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -6561,16 +6555,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -6578,16 +6572,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -6595,16 +6589,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -6612,16 +6606,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -6629,16 +6623,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -6646,16 +6640,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -6663,16 +6657,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -6680,16 +6674,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -6697,16 +6691,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -6714,16 +6708,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -6731,16 +6725,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -6748,16 +6742,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -6765,27 +6759,27 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -6793,16 +6787,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -6810,16 +6804,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -6827,16 +6821,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -6844,24 +6838,24 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -6869,24 +6863,24 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -6894,16 +6888,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -6911,16 +6905,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -6928,16 +6922,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -6945,16 +6939,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -6962,16 +6956,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -6979,10 +6973,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
